--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.3_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.3_Student_Q_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8857AAD5-895B-419F-A804-A86753BE06AC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89775A6-4C38-4F7C-9BD5-174E0309A576}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
@@ -85,7 +85,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +97,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -120,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -129,10 +135,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFE1A16C"/>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
       </left>
       <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="thin">
         <color rgb="FFE1A16C"/>
       </right>
       <top style="medium">
@@ -222,11 +243,9 @@
       <left style="thin">
         <color rgb="FFD9D9D9"/>
       </left>
-      <right style="thin">
-        <color rgb="FFD9D9D9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD9D9D9"/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
       </top>
       <bottom style="thin">
         <color rgb="FFD9D9D9"/>
@@ -235,7 +254,7 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color rgb="FFD9D9D9"/>
       </left>
       <right style="thin">
         <color rgb="FFD9D9D9"/>
@@ -249,54 +268,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFD9D9D9"/>
-      </left>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD9D9D9"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD9D9D9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD9D9D9"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FFD9D9D9"/>
       </bottom>
@@ -309,8 +296,32 @@
       <right style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
       </top>
       <bottom style="thin">
         <color rgb="FFD9D9D9"/>
@@ -324,10 +335,10 @@
       <right style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -335,139 +346,169 @@
         <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color rgb="FFD9D9D9"/>
       </left>
-      <right style="thin">
-        <color rgb="FFD9D9D9"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -480,7 +521,6 @@
     <mruColors>
       <color rgb="FFD9D9D9"/>
       <color rgb="FFE1A16C"/>
-      <color rgb="FFFDC689"/>
     </mruColors>
   </colors>
   <extLst>
@@ -793,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3056C779-24A2-4C13-B484-394CDF87168C}">
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112:F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,14 +845,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -835,103 +875,103 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="7"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="7"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="7"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="7"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="7"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
@@ -954,55 +994,55 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="30"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="36"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
     </row>
     <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
@@ -1025,55 +1065,55 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="31"/>
     </row>
     <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="12"/>
+      <c r="D32" s="7"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="12"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="7"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="12"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="12"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="12"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="12"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="36"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="40"/>
     </row>
     <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
@@ -1096,47 +1136,47 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="30"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="31"/>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="7"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="7"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="7"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="11"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="36"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="40"/>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
@@ -1159,11 +1199,11 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="20"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="25"/>
       <c r="F52" s="31"/>
     </row>
     <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1172,7 +1212,7 @@
       <c r="C53" s="8"/>
       <c r="D53" s="9"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="12"/>
+      <c r="F53" s="7"/>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -1180,7 +1220,7 @@
       <c r="C54" s="8"/>
       <c r="D54" s="9"/>
       <c r="E54" s="6"/>
-      <c r="F54" s="12"/>
+      <c r="F54" s="7"/>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
@@ -1188,7 +1228,7 @@
       <c r="C55" s="8"/>
       <c r="D55" s="9"/>
       <c r="E55" s="6"/>
-      <c r="F55" s="12"/>
+      <c r="F55" s="7"/>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
@@ -1196,7 +1236,7 @@
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
       <c r="E56" s="6"/>
-      <c r="F56" s="12"/>
+      <c r="F56" s="7"/>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
@@ -1204,18 +1244,18 @@
       <c r="C57" s="8"/>
       <c r="D57" s="9"/>
       <c r="E57" s="6"/>
-      <c r="F57" s="12"/>
+      <c r="F57" s="7"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="34" t="s">
+      <c r="A62" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="36"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="40"/>
     </row>
     <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
@@ -1238,12 +1278,12 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="18"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="30"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="31"/>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
@@ -1255,14 +1295,14 @@
     </row>
     <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="34" t="s">
+      <c r="A70" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="36"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="40"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
@@ -1285,17 +1325,17 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="18"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="32"/>
+      <c r="A72" s="29"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="35"/>
     </row>
     <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
-      <c r="C73" s="10"/>
+      <c r="C73" s="9"/>
       <c r="D73" s="8"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
@@ -1303,7 +1343,7 @@
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
-      <c r="C74" s="10"/>
+      <c r="C74" s="9"/>
       <c r="D74" s="8"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
@@ -1311,7 +1351,7 @@
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
-      <c r="C75" s="10"/>
+      <c r="C75" s="9"/>
       <c r="D75" s="8"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
@@ -1319,7 +1359,7 @@
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
-      <c r="C76" s="10"/>
+      <c r="C76" s="9"/>
       <c r="D76" s="8"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
@@ -1327,7 +1367,7 @@
     <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
-      <c r="C77" s="10"/>
+      <c r="C77" s="9"/>
       <c r="D77" s="8"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
@@ -1335,21 +1375,21 @@
     <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
-      <c r="C78" s="10"/>
+      <c r="C78" s="9"/>
       <c r="D78" s="8"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="34" t="s">
+      <c r="A83" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="35"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="36"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="40"/>
     </row>
     <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
@@ -1372,12 +1412,12 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="18"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="30"/>
+      <c r="A85" s="29"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="26"/>
     </row>
     <row r="86" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
@@ -1385,7 +1425,7 @@
       <c r="C86" s="9"/>
       <c r="D86" s="7"/>
       <c r="E86" s="6"/>
-      <c r="F86" s="7"/>
+      <c r="F86" s="11"/>
     </row>
     <row r="87" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
@@ -1393,18 +1433,18 @@
       <c r="C87" s="9"/>
       <c r="D87" s="7"/>
       <c r="E87" s="6"/>
-      <c r="F87" s="7"/>
+      <c r="F87" s="11"/>
     </row>
     <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="92" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="34" t="s">
+      <c r="A92" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B92" s="35"/>
-      <c r="C92" s="35"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="36"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="40"/>
     </row>
     <row r="93" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
@@ -1427,12 +1467,12 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="18"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="30"/>
+      <c r="A94" s="29"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="26"/>
     </row>
     <row r="95" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
@@ -1440,7 +1480,7 @@
       <c r="C95" s="8"/>
       <c r="D95" s="9"/>
       <c r="E95" s="6"/>
-      <c r="F95" s="7"/>
+      <c r="F95" s="11"/>
     </row>
     <row r="96" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
@@ -1448,7 +1488,7 @@
       <c r="C96" s="8"/>
       <c r="D96" s="9"/>
       <c r="E96" s="6"/>
-      <c r="F96" s="7"/>
+      <c r="F96" s="11"/>
     </row>
     <row r="97" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
@@ -1456,18 +1496,18 @@
       <c r="C97" s="8"/>
       <c r="D97" s="9"/>
       <c r="E97" s="6"/>
-      <c r="F97" s="7"/>
+      <c r="F97" s="11"/>
     </row>
     <row r="101" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="102" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="34" t="s">
+      <c r="A102" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B102" s="35"/>
-      <c r="C102" s="35"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="35"/>
-      <c r="F102" s="36"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="39"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="39"/>
+      <c r="F102" s="40"/>
     </row>
     <row r="103" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
@@ -1490,31 +1530,31 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="24"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="28"/>
-      <c r="F104" s="33"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="36"/>
+      <c r="F104" s="21"/>
     </row>
     <row r="105" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
       <c r="C105" s="8"/>
       <c r="D105" s="9"/>
-      <c r="E105" s="11"/>
+      <c r="E105" s="6"/>
       <c r="F105" s="7"/>
     </row>
     <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="110" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="34" t="s">
+      <c r="A110" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B110" s="35"/>
-      <c r="C110" s="35"/>
-      <c r="D110" s="35"/>
-      <c r="E110" s="35"/>
-      <c r="F110" s="36"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="39"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="39"/>
+      <c r="F110" s="40"/>
     </row>
     <row r="111" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
@@ -1537,19 +1577,19 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="18"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="22"/>
-      <c r="D112" s="21"/>
-      <c r="E112" s="29"/>
-      <c r="F112" s="30"/>
+      <c r="A112" s="37"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="21"/>
     </row>
     <row r="113" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="7"/>
       <c r="C113" s="8"/>
       <c r="D113" s="9"/>
-      <c r="E113" s="11"/>
+      <c r="E113" s="28"/>
       <c r="F113" s="7"/>
     </row>
     <row r="114" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1557,7 +1597,7 @@
       <c r="B114" s="7"/>
       <c r="C114" s="8"/>
       <c r="D114" s="9"/>
-      <c r="E114" s="11"/>
+      <c r="E114" s="6"/>
       <c r="F114" s="7"/>
     </row>
   </sheetData>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.3_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.3_Student_Q_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48126C63-10B3-41EA-B726-9D5BCF6D5802}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6821DC8-9607-441E-8FAE-154820CB7664}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
@@ -119,7 +119,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,8 +132,14 @@
         <bgColor theme="8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEF1E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -280,9 +286,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
+      <left/>
       <right style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </right>
@@ -295,7 +299,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -304,21 +308,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right/>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -328,7 +323,7 @@
         <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
       <bottom/>
@@ -336,18 +331,66 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right style="thin">
         <color theme="0" tint="-0.249977111117893"/>
@@ -361,9 +404,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top style="thin">
         <color theme="0" tint="-0.249977111117893"/>
@@ -374,111 +419,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
       <bottom style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </bottom>
@@ -490,37 +437,6 @@
       <top style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </bottom>
@@ -535,11 +451,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -553,28 +556,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -586,40 +592,25 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -634,62 +625,57 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -709,8 +695,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,6 +725,7 @@
   <colors>
     <mruColors>
       <color rgb="FFD9D9D9"/>
+      <color rgb="FFFEF1E6"/>
       <color rgb="FFE1A16C"/>
     </mruColors>
   </colors>
@@ -1032,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3056C779-24A2-4C13-B484-394CDF87168C}">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,14 +1053,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1078,95 +1083,102 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="6"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="6"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="6"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="6"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="6"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="6"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="6"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="44"/>
+    </row>
     <row r="14" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1189,55 +1201,62 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="10"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="13"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="17"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="44"/>
+    </row>
     <row r="22" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="48"/>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1260,55 +1279,62 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="6"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="10"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="13"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="17"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="44"/>
+    </row>
     <row r="30" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="53"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="48"/>
     </row>
     <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -1331,47 +1357,54 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="6"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="29"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="25"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="29"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="25"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="29"/>
-    </row>
-    <row r="36" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="25"/>
+    </row>
+    <row r="36" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="44"/>
+    </row>
     <row r="37" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="48"/>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -1394,55 +1427,62 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="6"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="10"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="13"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="17"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="14"/>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="13"/>
-    </row>
-    <row r="44" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="44"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="44"/>
+    </row>
     <row r="45" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="53"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="48"/>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1465,26 +1505,33 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="44"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="44"/>
+    </row>
     <row r="49" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="51" t="s">
+      <c r="A49" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="53"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="48"/>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="58" t="s">
         <v>1</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -1504,63 +1551,70 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="36"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="31"/>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="39"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="33"/>
     </row>
     <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="41"/>
+      <c r="A53" s="54"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="35"/>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="39"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="33"/>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="41"/>
+      <c r="A55" s="54"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="35"/>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="36"/>
-    </row>
-    <row r="57" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="31"/>
+    </row>
+    <row r="57" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="44"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="44"/>
+    </row>
     <row r="58" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="51" t="s">
+      <c r="A58" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="52"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="53"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="48"/>
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
@@ -1583,31 +1637,38 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="17"/>
+      <c r="A60" s="55"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="14"/>
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="46"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="46"/>
-    </row>
-    <row r="62" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="38"/>
+    </row>
+    <row r="62" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="44"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="44"/>
+    </row>
     <row r="63" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="51" t="s">
+      <c r="A63" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="53"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="48"/>
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
@@ -1630,39 +1691,46 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="25"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="44"/>
+      <c r="A65" s="52"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="37"/>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="38"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="29"/>
+      <c r="A66" s="53"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="25"/>
     </row>
     <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="22"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="29"/>
-    </row>
-    <row r="68" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A67" s="54"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="25"/>
+    </row>
+    <row r="68" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="44"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="44"/>
+    </row>
     <row r="69" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="54" t="s">
+      <c r="A69" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B69" s="55"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="56"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="51"/>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
@@ -1685,31 +1753,38 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="45"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="47"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="46"/>
+      <c r="A71" s="56"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="38"/>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="43"/>
-    </row>
-    <row r="73" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A72" s="57"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="36"/>
+    </row>
+    <row r="73" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="44"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="44"/>
+    </row>
     <row r="74" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="54" t="s">
+      <c r="A74" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="55"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="56"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="51"/>
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
@@ -1732,27 +1807,13 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="45"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="47"/>
-      <c r="D76" s="48"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="6"/>
-    </row>
-    <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D77"/>
-      <c r="E77"/>
-    </row>
-    <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D78"/>
-      <c r="E78"/>
-    </row>
-    <row r="79" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A76" s="56"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A74:F74"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.3_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.3_Student_Q_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF83B73F-9DBF-4E8C-B3ED-8321BF6D181C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA9A650-B600-49D7-BDC4-20BE61122EB2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,11 +76,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,29 +88,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -487,115 +480,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -922,7 +915,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,782 +928,782 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="C2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="14"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="C15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="14"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25"/>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="C23" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="14"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="32"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="25"/>
     </row>
     <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="C31" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
     </row>
     <row r="36" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="14"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="32"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="25"/>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="2" t="s">
+      <c r="C38" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
     </row>
     <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
     </row>
     <row r="44" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="14"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="32"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="25"/>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="2" t="s">
+      <c r="C46" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
     </row>
     <row r="48" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="14"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="32"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="25"/>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="2" t="s">
+      <c r="C50" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
     </row>
     <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="18"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
     </row>
     <row r="57" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="14"/>
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="32"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="25"/>
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="2" t="s">
+      <c r="C59" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
     </row>
     <row r="62" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="14"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="32"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="25"/>
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F64" s="2" t="s">
+      <c r="C64" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
     </row>
     <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="18"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
     </row>
     <row r="68" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="14"/>
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="27" t="s">
+      <c r="A69" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="29"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="30"/>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F70" s="4" t="s">
+      <c r="C70" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70" s="32" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="20"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="40"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
     </row>
     <row r="73" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="14"/>
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="27" t="s">
+      <c r="A74" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="29"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="30"/>
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F75" s="3" t="s">
+      <c r="C75" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="17"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
+      <c r="A76" s="10"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
     </row>
     <row r="77" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="38"/>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="33"/>
+      <c r="A77" s="7"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="4"/>
     </row>
     <row r="78" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="33"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="33"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.3_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.3_Student_Q_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31488437-0CCF-424B-8DD5-0589E433CC24}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6E4E25-662D-4731-AFA5-AC899B0A7686}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,9 +76,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -191,14 +188,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -211,6 +202,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,114 +546,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -667,74 +664,74 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="C15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
@@ -745,74 +742,74 @@
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="8" t="s">
+      <c r="C23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
@@ -823,66 +820,66 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="8" t="s">
+      <c r="C31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -893,74 +890,74 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="8" t="s">
+      <c r="C38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
     </row>
     <row r="44" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
@@ -971,42 +968,42 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="8" t="s">
+      <c r="C46" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
@@ -1017,82 +1014,82 @@
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="8" t="s">
+      <c r="C50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
     </row>
     <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
     </row>
     <row r="57" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
@@ -1103,50 +1100,50 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="8" t="s">
+      <c r="C59" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
     </row>
     <row r="62" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
@@ -1157,58 +1154,58 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F64" s="8" t="s">
+      <c r="C64" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
+      <c r="A65" s="9"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
     </row>
     <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
+      <c r="A67" s="9"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
     </row>
     <row r="68" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
@@ -1219,50 +1216,50 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C70" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F70" s="8" t="s">
+      <c r="C70" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
+      <c r="A71" s="9"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
+      <c r="A72" s="9"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
     </row>
     <row r="73" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
@@ -1273,56 +1270,56 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F75" s="8" t="s">
+      <c r="C75" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
+      <c r="A76" s="9"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A37:F37"/>
     <mergeCell ref="A74:F74"/>
     <mergeCell ref="A45:F45"/>
     <mergeCell ref="A49:F49"/>
     <mergeCell ref="A58:F58"/>
     <mergeCell ref="A63:F63"/>
     <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A37:F37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.3_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.3_Student_Q_Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6E4E25-662D-4731-AFA5-AC899B0A7686}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB35786-3B9C-46DB-9D7A-F16D999D73D2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,30 +184,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,780 +551,781 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="C15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="2"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="6" t="s">
+      <c r="C23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="2"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="6" t="s">
+      <c r="C31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="2"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="6" t="s">
+      <c r="C38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="2"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="6" t="s">
+      <c r="C46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
     </row>
     <row r="48" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="2"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="6" t="s">
+      <c r="C50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
     </row>
     <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
     </row>
     <row r="57" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="2"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="6" t="s">
+      <c r="C59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
     </row>
     <row r="62" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="2"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="4"/>
     </row>
     <row r="63" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F64" s="6" t="s">
+      <c r="C64" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="9"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
     </row>
     <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
+      <c r="A67" s="6"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
     </row>
     <row r="68" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="2"/>
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="4"/>
     </row>
     <row r="69" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F70" s="6" t="s">
+      <c r="C70" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="9"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
     </row>
     <row r="73" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="2"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="4"/>
     </row>
     <row r="74" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F75" s="6" t="s">
+      <c r="C75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="9"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
+      <c r="A76" s="6"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A37:F37"/>
     <mergeCell ref="A74:F74"/>
     <mergeCell ref="A45:F45"/>
     <mergeCell ref="A49:F49"/>
     <mergeCell ref="A58:F58"/>
     <mergeCell ref="A63:F63"/>
     <mergeCell ref="A69:F69"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A37:F37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
